--- a/BackTest/2019-10-30 BackTest CMT.xlsx
+++ b/BackTest/2019-10-30 BackTest CMT.xlsx
@@ -451,20 +451,14 @@
         <v>22.94499999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>22.97499999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>23.5</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>22.98499999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>22.99499999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>23.01499999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>23.02499999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>23.04499999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>23.06999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>23.075</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>23.09999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>23.11999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>23.14499999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>23.15499999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>23.15999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>23.16999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>23.18</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>23.185</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>23</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>23.175</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>23</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>23.165</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>23.155</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>23</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>23.145</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>23</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>23.12</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>23</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>23.105</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>23</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>23.095</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>23</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>23.085</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>23</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>23.08</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>23</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>23.075</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>23</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>23.07</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>23.07</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>23.07</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>23.075</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>23.3</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>23.085</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>23.5</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>23.095</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>23.4</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,20 +1606,14 @@
         <v>23.115</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>23.5</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1641,14 @@
         <v>23.145</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>23.7</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1886,20 +1676,14 @@
         <v>23.195</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>24.1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1927,20 +1711,14 @@
         <v>23.265</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1968,20 +1746,14 @@
         <v>23.36</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>24.9</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2009,20 +1781,14 @@
         <v>23.465</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>25.2</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2050,20 +1816,14 @@
         <v>23.57</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>25.1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2098,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2137,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2176,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2215,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2254,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2293,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2371,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2410,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2449,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2488,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2527,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2566,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2605,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2644,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2683,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2722,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2800,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2839,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2878,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2917,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2956,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2995,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3034,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3073,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3112,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3151,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3229,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3268,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3307,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3346,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3385,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3424,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3463,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3502,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3541,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3580,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3658,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3697,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3736,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3775,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3814,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3892,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3931,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3970,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4009,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4087,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4126,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4165,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4204,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4243,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4282,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4321,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4360,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4399,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4438,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4516,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4555,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4594,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4633,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4672,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4711,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4750,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4789,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4828,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4867,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4945,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4984,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5023,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5062,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5101,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5140,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5179,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5218,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5257,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5296,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5374,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5413,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5452,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5491,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5530,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5569,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5608,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5647,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5686,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5725,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5803,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5842,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5881,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5920,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5959,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5998,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6037,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6076,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6115,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6154,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6232,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6267,15 +5599,11 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6306,15 +5634,11 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6349,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6388,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6423,16 +5739,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6460,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -6495,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -6530,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -6565,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -7615,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -7650,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -7685,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
@@ -9365,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
@@ -9400,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
@@ -9435,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
@@ -25742,13 +25056,17 @@
         <v>25.82999999999995</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
       </c>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K705" t="n">
+        <v>25.3</v>
+      </c>
       <c r="L705" t="inlineStr"/>
       <c r="M705" t="n">
         <v>1</v>
@@ -25777,14 +25095,22 @@
         <v>25.77999999999994</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
       </c>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K706" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25812,14 +25138,22 @@
         <v>25.70999999999994</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
       </c>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K707" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25847,14 +25181,22 @@
         <v>25.65499999999994</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
       </c>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K708" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25882,14 +25224,22 @@
         <v>25.60499999999994</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
       </c>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K709" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25917,14 +25267,22 @@
         <v>25.56499999999994</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
       </c>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K710" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -25952,14 +25310,22 @@
         <v>25.53499999999995</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
       </c>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K711" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -25987,14 +25353,22 @@
         <v>25.49999999999994</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
       </c>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K712" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -26028,8 +25402,14 @@
         <v>0</v>
       </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="K713" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -26063,8 +25443,14 @@
         <v>0</v>
       </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="K714" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -26098,8 +25484,14 @@
         <v>0</v>
       </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="K715" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -26133,8 +25525,14 @@
         <v>0</v>
       </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="K716" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -26168,8 +25566,14 @@
         <v>0</v>
       </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="K717" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -26203,8 +25607,14 @@
         <v>0</v>
       </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="K718" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -26238,8 +25648,14 @@
         <v>0</v>
       </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="K719" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -26273,8 +25689,14 @@
         <v>0</v>
       </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="K720" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -26308,8 +25730,14 @@
         <v>0</v>
       </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="K721" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -26343,8 +25771,14 @@
         <v>0</v>
       </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="K722" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -26378,8 +25812,14 @@
         <v>0</v>
       </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="K723" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -26413,8 +25853,14 @@
         <v>0</v>
       </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="K724" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -26448,8 +25894,14 @@
         <v>0</v>
       </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="K725" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -26483,8 +25935,14 @@
         <v>0</v>
       </c>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="K726" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -26518,8 +25976,14 @@
         <v>0</v>
       </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="K727" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -26553,8 +26017,14 @@
         <v>0</v>
       </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="K728" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -26588,8 +26058,14 @@
         <v>0</v>
       </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="K729" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -26623,8 +26099,14 @@
         <v>0</v>
       </c>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="K730" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -26658,8 +26140,14 @@
         <v>0</v>
       </c>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="K731" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -26693,8 +26181,14 @@
         <v>0</v>
       </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="K732" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -26728,8 +26222,14 @@
         <v>0</v>
       </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="K733" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -26763,8 +26263,14 @@
         <v>0</v>
       </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="K734" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -26798,8 +26304,14 @@
         <v>0</v>
       </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="K735" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -26833,8 +26345,14 @@
         <v>0</v>
       </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="K736" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -26868,8 +26386,14 @@
         <v>0</v>
       </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="K737" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -26903,8 +26427,14 @@
         <v>0</v>
       </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="K738" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -26938,8 +26468,14 @@
         <v>0</v>
       </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="K739" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -26973,8 +26509,14 @@
         <v>0</v>
       </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="K740" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -27008,8 +26550,14 @@
         <v>0</v>
       </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="K741" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -27043,8 +26591,14 @@
         <v>0</v>
       </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="K742" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -27078,8 +26632,14 @@
         <v>0</v>
       </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="K743" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -27113,8 +26673,14 @@
         <v>0</v>
       </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="K744" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -27148,8 +26714,14 @@
         <v>0</v>
       </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="K745" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -27183,8 +26755,14 @@
         <v>0</v>
       </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="K746" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -27218,8 +26796,14 @@
         <v>0</v>
       </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="K747" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -27253,8 +26837,14 @@
         <v>0</v>
       </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="K748" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -27288,8 +26878,14 @@
         <v>0</v>
       </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="K749" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -27323,8 +26919,14 @@
         <v>0</v>
       </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="K750" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -27358,8 +26960,14 @@
         <v>0</v>
       </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="K751" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -27393,8 +27001,14 @@
         <v>0</v>
       </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="K752" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -27428,8 +27042,14 @@
         <v>0</v>
       </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="K753" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -27463,8 +27083,14 @@
         <v>0</v>
       </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="K754" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -27498,8 +27124,14 @@
         <v>0</v>
       </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="K755" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -27533,8 +27165,14 @@
         <v>0</v>
       </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="K756" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -27568,8 +27206,14 @@
         <v>0</v>
       </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="K757" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -27603,8 +27247,14 @@
         <v>0</v>
       </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="K758" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -27638,8 +27288,14 @@
         <v>0</v>
       </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="K759" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -27673,8 +27329,14 @@
         <v>0</v>
       </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="K760" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -27708,8 +27370,14 @@
         <v>0</v>
       </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="K761" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -27743,8 +27411,14 @@
         <v>0</v>
       </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="K762" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -27778,8 +27452,14 @@
         <v>0</v>
       </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="K763" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -27813,8 +27493,14 @@
         <v>0</v>
       </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="K764" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -27848,8 +27534,14 @@
         <v>0</v>
       </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="K765" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -27883,8 +27575,14 @@
         <v>0</v>
       </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="K766" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -27918,8 +27616,14 @@
         <v>0</v>
       </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="K767" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -27953,8 +27657,14 @@
         <v>0</v>
       </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="K768" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -27988,8 +27698,14 @@
         <v>0</v>
       </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="K769" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -28023,8 +27739,14 @@
         <v>0</v>
       </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="K770" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -28058,8 +27780,14 @@
         <v>0</v>
       </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="K771" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -28093,8 +27821,14 @@
         <v>0</v>
       </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="K772" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -28128,8 +27862,14 @@
         <v>0</v>
       </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="K773" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -28163,8 +27903,14 @@
         <v>0</v>
       </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="K774" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -28198,8 +27944,14 @@
         <v>0</v>
       </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr"/>
+      <c r="K775" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -28233,8 +27985,14 @@
         <v>0</v>
       </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr"/>
+      <c r="K776" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -28268,8 +28026,14 @@
         <v>0</v>
       </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr"/>
+      <c r="K777" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -28303,8 +28067,14 @@
         <v>0</v>
       </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
+      <c r="K778" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -28338,8 +28108,14 @@
         <v>0</v>
       </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
+      <c r="K779" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -28373,8 +28149,14 @@
         <v>0</v>
       </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr"/>
+      <c r="K780" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -28408,8 +28190,14 @@
         <v>0</v>
       </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr"/>
+      <c r="K781" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -28443,8 +28231,14 @@
         <v>0</v>
       </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr"/>
+      <c r="K782" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -28478,8 +28272,14 @@
         <v>0</v>
       </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr"/>
+      <c r="K783" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -28513,8 +28313,14 @@
         <v>0</v>
       </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
+      <c r="K784" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -28548,8 +28354,14 @@
         <v>0</v>
       </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr"/>
+      <c r="K785" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -28583,8 +28395,14 @@
         <v>0</v>
       </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
+      <c r="K786" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -28618,8 +28436,14 @@
         <v>0</v>
       </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr"/>
+      <c r="K787" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -28653,8 +28477,14 @@
         <v>0</v>
       </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr"/>
+      <c r="K788" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -28688,8 +28518,14 @@
         <v>0</v>
       </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
+      <c r="K789" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -28723,8 +28559,14 @@
         <v>0</v>
       </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr"/>
+      <c r="K790" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -28758,8 +28600,14 @@
         <v>0</v>
       </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
+      <c r="K791" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -28793,8 +28641,14 @@
         <v>0</v>
       </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
+      <c r="K792" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -28828,8 +28682,14 @@
         <v>0</v>
       </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr"/>
+      <c r="K793" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -28863,8 +28723,14 @@
         <v>0</v>
       </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
+      <c r="K794" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -28898,8 +28764,14 @@
         <v>0</v>
       </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
+      <c r="K795" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -28933,8 +28805,14 @@
         <v>0</v>
       </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr"/>
+      <c r="K796" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -28968,8 +28846,14 @@
         <v>0</v>
       </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
+      <c r="K797" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -29003,8 +28887,14 @@
         <v>0</v>
       </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr"/>
+      <c r="K798" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -29038,8 +28928,14 @@
         <v>0</v>
       </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr"/>
+      <c r="K799" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -29073,8 +28969,14 @@
         <v>0</v>
       </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr"/>
+      <c r="K800" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -29108,8 +29010,14 @@
         <v>0</v>
       </c>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr"/>
+      <c r="K801" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -29143,8 +29051,14 @@
         <v>0</v>
       </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr"/>
+      <c r="K802" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -29178,8 +29092,14 @@
         <v>0</v>
       </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr"/>
+      <c r="K803" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -29213,8 +29133,14 @@
         <v>0</v>
       </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr"/>
+      <c r="K804" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -29248,8 +29174,14 @@
         <v>0</v>
       </c>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr"/>
+      <c r="K805" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -29283,8 +29215,14 @@
         <v>0</v>
       </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr"/>
+      <c r="K806" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -29318,8 +29256,14 @@
         <v>0</v>
       </c>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr"/>
+      <c r="K807" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -29353,8 +29297,14 @@
         <v>0</v>
       </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr"/>
+      <c r="K808" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -29388,8 +29338,14 @@
         <v>0</v>
       </c>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
+      <c r="K809" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -29423,8 +29379,14 @@
         <v>0</v>
       </c>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
+      <c r="K810" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -29458,8 +29420,14 @@
         <v>0</v>
       </c>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="K811" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -29493,8 +29461,14 @@
         <v>0</v>
       </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
+      <c r="K812" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -29528,8 +29502,14 @@
         <v>0</v>
       </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr"/>
+      <c r="K813" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -29563,8 +29543,14 @@
         <v>0</v>
       </c>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr"/>
+      <c r="K814" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -29598,8 +29584,14 @@
         <v>0</v>
       </c>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr"/>
+      <c r="K815" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -29633,8 +29625,14 @@
         <v>0</v>
       </c>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr"/>
+      <c r="K816" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -29668,8 +29666,14 @@
         <v>0</v>
       </c>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
+      <c r="K817" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M817" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest CMT.xlsx
+++ b/BackTest/2019-10-30 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4244,11 +4244,9 @@
         <v>682138.4056999998</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>23.1</v>
       </c>
@@ -4285,11 +4283,9 @@
         <v>1034100.7296</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>23.1</v>
       </c>
@@ -4326,11 +4322,9 @@
         <v>1180255.9096</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>23.1</v>
       </c>
@@ -4367,11 +4361,9 @@
         <v>1519409.9777</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>23.1</v>
       </c>
@@ -4408,11 +4400,9 @@
         <v>1519409.9777</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>23.1</v>
       </c>
@@ -5580,11 +5570,9 @@
         <v>519075.9605666661</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
         <v>23.1</v>
       </c>
@@ -5621,11 +5609,9 @@
         <v>510329.1167666661</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
         <v>23.1</v>
       </c>
@@ -5662,11 +5648,9 @@
         <v>506712.8672666661</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
         <v>23.1</v>
       </c>
@@ -5703,11 +5687,9 @@
         <v>401133.7817666662</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
         <v>23.1</v>
       </c>
@@ -5744,11 +5726,9 @@
         <v>441013.0405666662</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
         <v>23.1</v>
       </c>
@@ -5785,11 +5765,9 @@
         <v>355942.6025666662</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
         <v>23.1</v>
       </c>
@@ -5826,11 +5804,9 @@
         <v>355942.6025666662</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
         <v>23.1</v>
       </c>
@@ -5867,11 +5843,9 @@
         <v>352074.3355666662</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
         <v>23.1</v>
       </c>
@@ -5908,11 +5882,9 @@
         <v>352074.3355666662</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
         <v>23.1</v>
       </c>
@@ -5949,11 +5921,9 @@
         <v>352074.3355666662</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
         <v>23.1</v>
       </c>
@@ -5990,11 +5960,9 @@
         <v>623388.2778666662</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
         <v>23.1</v>
       </c>
@@ -6031,11 +5999,9 @@
         <v>612537.3717666662</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>24.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
         <v>23.1</v>
       </c>
@@ -6072,11 +6038,9 @@
         <v>612537.3717666662</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>23.1</v>
       </c>
@@ -6113,11 +6077,9 @@
         <v>638354.3194666662</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>24.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
         <v>23.1</v>
       </c>
@@ -6154,11 +6116,9 @@
         <v>638354.3194666662</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
         <v>23.1</v>
       </c>
@@ -6195,11 +6155,9 @@
         <v>783417.9423666662</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>24.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
         <v>23.1</v>
       </c>
@@ -9161,7 +9119,7 @@
         <v>9249485.37764092</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
@@ -9169,13 +9127,15 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>1.280714285714286</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1.013100436681223</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9200,17 +9160,11 @@
         <v>9426406.72115181</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9239,17 +9193,11 @@
         <v>9557980.716251811</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9278,17 +9226,11 @@
         <v>9703316.192351811</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9317,17 +9259,11 @@
         <v>9951478.098726893</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9356,17 +9292,11 @@
         <v>10271287.73992689</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9395,17 +9325,11 @@
         <v>9474553.384626893</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9434,17 +9358,11 @@
         <v>9519646.608126894</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9473,17 +9391,11 @@
         <v>9859393.822693022</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9512,17 +9424,11 @@
         <v>10200916.93435295</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9551,17 +9457,11 @@
         <v>10046331.27244492</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9590,17 +9490,11 @@
         <v>10315096.65733688</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9629,17 +9523,11 @@
         <v>11383726.01363719</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9668,17 +9556,11 @@
         <v>10626732.31383719</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9707,17 +9589,11 @@
         <v>10626732.31383719</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9746,17 +9622,11 @@
         <v>11117984.80929215</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9785,17 +9655,11 @@
         <v>11354659.00812682</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9824,17 +9688,11 @@
         <v>10303012.46902682</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9863,17 +9721,11 @@
         <v>10026253.40902682</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9902,17 +9754,11 @@
         <v>10084206.49212682</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9941,17 +9787,11 @@
         <v>10506845.60452682</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9983,14 +9823,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -10022,14 +9856,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10061,14 +9889,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10100,14 +9922,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10139,14 +9955,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10178,14 +9988,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10217,14 +10021,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10256,14 +10054,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10295,14 +10087,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10334,14 +10120,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10370,23 +10150,15 @@
         <v>10136577.84192682</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
-        <v>1.332662337662338</v>
-      </c>
-      <c r="M251" t="n">
-        <v>1.013100436681223</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -11665,7 +11437,7 @@
         <v>11174085.77475384</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11698,7 +11470,7 @@
         <v>11531929.45011156</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11731,7 +11503,7 @@
         <v>11413048.24631156</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11764,7 +11536,7 @@
         <v>12129366.50681156</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11797,7 +11569,7 @@
         <v>11485019.50704488</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11830,7 +11602,7 @@
         <v>12225525.94641106</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11863,7 +11635,7 @@
         <v>11307016.01626699</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11896,7 +11668,7 @@
         <v>10751540.32016699</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11929,7 +11701,7 @@
         <v>11224715.57766699</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11962,7 +11734,7 @@
         <v>11766049.80896699</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11995,7 +11767,7 @@
         <v>11766049.80896699</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12028,7 +11800,7 @@
         <v>11766049.80896699</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12061,7 +11833,7 @@
         <v>11491716.89496699</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12094,7 +11866,7 @@
         <v>10704198.79246699</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12127,7 +11899,7 @@
         <v>10376840.48186699</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12160,7 +11932,7 @@
         <v>10905732.79964868</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12193,7 +11965,7 @@
         <v>10414644.13664868</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12226,7 +11998,7 @@
         <v>10601706.27954868</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12259,7 +12031,7 @@
         <v>10866726.29287951</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12292,7 +12064,7 @@
         <v>10837360.76847951</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12325,7 +12097,7 @@
         <v>10915887.04127951</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12358,7 +12130,7 @@
         <v>10915887.04127951</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12391,7 +12163,7 @@
         <v>10760769.56937951</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12424,7 +12196,7 @@
         <v>10760769.56937951</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12457,7 +12229,7 @@
         <v>10431984.87567951</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12490,7 +12262,7 @@
         <v>10550041.40947951</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12523,7 +12295,7 @@
         <v>10347069.00977951</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12556,7 +12328,7 @@
         <v>10211216.83127951</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12589,7 +12361,7 @@
         <v>9789629.885690453</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12622,7 +12394,7 @@
         <v>9993705.600590453</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12655,7 +12427,7 @@
         <v>9813342.368990453</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12688,7 +12460,7 @@
         <v>9813792.038190452</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12721,7 +12493,7 @@
         <v>9645051.111490453</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12754,7 +12526,7 @@
         <v>9456526.920790453</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12787,7 +12559,7 @@
         <v>9250055.621390453</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12820,7 +12592,7 @@
         <v>9301632.511290453</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12853,7 +12625,7 @@
         <v>9495118.238090454</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12886,7 +12658,7 @@
         <v>9430877.315090453</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12919,7 +12691,7 @@
         <v>9430877.315090453</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12952,7 +12724,7 @@
         <v>9494090.790012272</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12985,7 +12757,7 @@
         <v>9493950.790012272</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13018,7 +12790,7 @@
         <v>9515331.771012273</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13051,7 +12823,7 @@
         <v>9398802.010512272</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13084,7 +12856,7 @@
         <v>9186489.876212273</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13117,7 +12889,7 @@
         <v>9239199.452412272</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13150,7 +12922,7 @@
         <v>9198231.853712272</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13183,7 +12955,7 @@
         <v>8301325.673012272</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13216,7 +12988,7 @@
         <v>8669670.651912272</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13249,7 +13021,7 @@
         <v>8434549.391012272</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13282,7 +13054,7 @@
         <v>8475731.903012272</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13315,7 +13087,7 @@
         <v>8588589.090612272</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13348,7 +13120,7 @@
         <v>8357085.51991946</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13381,7 +13153,7 @@
         <v>8474848.261019459</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13414,7 +13186,7 @@
         <v>8474848.261019459</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13447,7 +13219,7 @@
         <v>8474848.261019459</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13480,7 +13252,7 @@
         <v>8627020.718319459</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13513,7 +13285,7 @@
         <v>8378859.756054109</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13546,7 +13318,7 @@
         <v>8424508.901654109</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13579,7 +13351,7 @@
         <v>8643102.571262397</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13612,7 +13384,7 @@
         <v>8643102.571262397</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13645,7 +13417,7 @@
         <v>8548298.165062398</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13678,7 +13450,7 @@
         <v>8548298.165062398</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13711,7 +13483,7 @@
         <v>8696522.695062397</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13744,7 +13516,7 @@
         <v>8495728.329662398</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13777,7 +13549,7 @@
         <v>8405478.776162397</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13810,7 +13582,7 @@
         <v>8402090.063062398</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13843,7 +13615,7 @@
         <v>8427423.143162398</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13876,7 +13648,7 @@
         <v>8556480.122362398</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13909,7 +13681,7 @@
         <v>8581377.338162398</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13942,7 +13714,7 @@
         <v>8638662.108862398</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13975,7 +13747,7 @@
         <v>8625369.936362399</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14107,7 +13879,7 @@
         <v>8543562.050162397</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14140,7 +13912,7 @@
         <v>8544212.050162397</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14206,7 +13978,7 @@
         <v>8485364.281162398</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14272,7 +14044,7 @@
         <v>8550777.710762398</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14305,7 +14077,7 @@
         <v>8550767.710762398</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14338,7 +14110,7 @@
         <v>8548369.398062399</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14371,7 +14143,7 @@
         <v>8549285.393362399</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14404,7 +14176,7 @@
         <v>8581434.1088624</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14437,7 +14209,7 @@
         <v>8580182.1088624</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14503,7 +14275,7 @@
         <v>8545149.0693624</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14569,7 +14341,7 @@
         <v>8352969.5533624</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14635,7 +14407,7 @@
         <v>8532888.958262401</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14668,7 +14440,7 @@
         <v>8680360.12875497</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14701,7 +14473,7 @@
         <v>8680451.12875497</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14734,7 +14506,7 @@
         <v>8680451.12875497</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14800,7 +14572,7 @@
         <v>8619660.401054971</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14932,7 +14704,7 @@
         <v>8431919.844854971</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14965,7 +14737,7 @@
         <v>8483723.870554971</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14998,7 +14770,7 @@
         <v>8468592.052354971</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15097,7 +14869,7 @@
         <v>8429027.44765497</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15130,7 +14902,7 @@
         <v>8096982.72685497</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15163,7 +14935,7 @@
         <v>8176139.81355497</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15196,7 +14968,7 @@
         <v>8131116.16705497</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15229,7 +15001,7 @@
         <v>8219934.10015497</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15262,7 +15034,7 @@
         <v>8168576.24365497</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -31344,6 +31116,6 @@
       <c r="M886" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest CMT.xlsx
+++ b/BackTest/2019-10-30 BackTest CMT.xlsx
@@ -4244,9 +4244,11 @@
         <v>682138.4056999998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>23.5</v>
+      </c>
       <c r="J95" t="n">
         <v>23.1</v>
       </c>
@@ -4283,9 +4285,11 @@
         <v>1034100.7296</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>24</v>
+      </c>
       <c r="J96" t="n">
         <v>23.1</v>
       </c>
@@ -9119,2432 +9123,2870 @@
         <v>9249485.37764092</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
         <v>23.1</v>
       </c>
       <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C221" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D221" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E221" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F221" t="n">
+        <v>176921.3435108911</v>
+      </c>
+      <c r="G221" t="n">
+        <v>9426406.72115181</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C222" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F222" t="n">
+        <v>131573.9951</v>
+      </c>
+      <c r="G222" t="n">
+        <v>9557980.716251811</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C223" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D223" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E223" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F223" t="n">
+        <v>145335.4761</v>
+      </c>
+      <c r="G223" t="n">
+        <v>9703316.192351811</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C224" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D224" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E224" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F224" t="n">
+        <v>248161.906375082</v>
+      </c>
+      <c r="G224" t="n">
+        <v>9951478.098726893</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C225" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D225" t="n">
+        <v>31</v>
+      </c>
+      <c r="E225" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F225" t="n">
+        <v>319809.6412</v>
+      </c>
+      <c r="G225" t="n">
+        <v>10271287.73992689</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C226" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D226" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E226" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F226" t="n">
+        <v>796734.3553000001</v>
+      </c>
+      <c r="G226" t="n">
+        <v>9474553.384626893</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C227" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D227" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E227" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F227" t="n">
+        <v>45093.2235</v>
+      </c>
+      <c r="G227" t="n">
+        <v>9519646.608126894</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C228" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D228" t="n">
+        <v>31</v>
+      </c>
+      <c r="E228" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F228" t="n">
+        <v>339747.214566129</v>
+      </c>
+      <c r="G228" t="n">
+        <v>9859393.822693022</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C229" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F229" t="n">
+        <v>341523.1116599317</v>
+      </c>
+      <c r="G229" t="n">
+        <v>10200916.93435295</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D230" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E230" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F230" t="n">
+        <v>154585.6619080386</v>
+      </c>
+      <c r="G230" t="n">
+        <v>10046331.27244492</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C231" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D231" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E231" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F231" t="n">
+        <v>268765.3848919614</v>
+      </c>
+      <c r="G231" t="n">
+        <v>10315096.65733688</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C232" t="n">
+        <v>32</v>
+      </c>
+      <c r="D232" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E232" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1068629.35630031</v>
+      </c>
+      <c r="G232" t="n">
+        <v>11383726.01363719</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C233" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D233" t="n">
+        <v>32</v>
+      </c>
+      <c r="E233" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F233" t="n">
+        <v>756993.6997999999</v>
+      </c>
+      <c r="G233" t="n">
+        <v>10626732.31383719</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C234" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D234" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E234" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F234" t="n">
+        <v>32644.007</v>
+      </c>
+      <c r="G234" t="n">
+        <v>10626732.31383719</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C235" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D235" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F235" t="n">
+        <v>491252.4954549689</v>
+      </c>
+      <c r="G235" t="n">
+        <v>11117984.80929215</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C236" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D236" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E236" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F236" t="n">
+        <v>236674.1988346652</v>
+      </c>
+      <c r="G236" t="n">
+        <v>11354659.00812682</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C237" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D237" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E237" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1051646.5391</v>
+      </c>
+      <c r="G237" t="n">
+        <v>10303012.46902682</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C238" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D238" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F238" t="n">
+        <v>276759.06</v>
+      </c>
+      <c r="G238" t="n">
+        <v>10026253.40902682</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C239" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D239" t="n">
+        <v>32</v>
+      </c>
+      <c r="E239" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F239" t="n">
+        <v>57953.0831</v>
+      </c>
+      <c r="G239" t="n">
+        <v>10084206.49212682</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C240" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D240" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E240" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F240" t="n">
+        <v>422639.1124</v>
+      </c>
+      <c r="G240" t="n">
+        <v>10506845.60452682</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C241" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D241" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E241" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F241" t="n">
+        <v>109935.6593</v>
+      </c>
+      <c r="G241" t="n">
+        <v>10396909.94522682</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C242" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D242" t="n">
+        <v>32</v>
+      </c>
+      <c r="E242" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="F242" t="n">
+        <v>58410.3622</v>
+      </c>
+      <c r="G242" t="n">
+        <v>10455320.30742682</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="C243" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D243" t="n">
+        <v>32</v>
+      </c>
+      <c r="E243" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F243" t="n">
+        <v>273417.0712</v>
+      </c>
+      <c r="G243" t="n">
+        <v>10181903.23622682</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C244" t="n">
+        <v>31</v>
+      </c>
+      <c r="D244" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E244" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F244" t="n">
+        <v>146075.7979</v>
+      </c>
+      <c r="G244" t="n">
+        <v>10035827.43832682</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>31</v>
+      </c>
+      <c r="C245" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="D245" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E245" t="n">
+        <v>31</v>
+      </c>
+      <c r="F245" t="n">
+        <v>498668.2692</v>
+      </c>
+      <c r="G245" t="n">
+        <v>10534495.70752682</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C246" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D246" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E246" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>119500.9741</v>
+      </c>
+      <c r="G246" t="n">
+        <v>10414994.73342682</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C247" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D247" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E247" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="F247" t="n">
+        <v>40847.0284</v>
+      </c>
+      <c r="G247" t="n">
+        <v>10374147.70502682</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C248" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D248" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E248" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>238538.6957</v>
+      </c>
+      <c r="G248" t="n">
+        <v>10612686.40072682</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C249" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E249" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F249" t="n">
+        <v>403148.2408</v>
+      </c>
+      <c r="G249" t="n">
+        <v>10209538.15992682</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C250" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D250" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E250" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F250" t="n">
+        <v>3307.7556</v>
+      </c>
+      <c r="G250" t="n">
+        <v>10212845.91552682</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C251" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D251" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E251" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F251" t="n">
+        <v>76268.0736</v>
+      </c>
+      <c r="G251" t="n">
+        <v>10136577.84192682</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C252" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E252" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F252" t="n">
+        <v>18212.6032</v>
+      </c>
+      <c r="G252" t="n">
+        <v>10154790.44512682</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C253" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D253" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E253" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F253" t="n">
+        <v>166218.0585</v>
+      </c>
+      <c r="G253" t="n">
+        <v>9988572.386626817</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C254" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D254" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E254" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F254" t="n">
+        <v>10432.0724</v>
+      </c>
+      <c r="G254" t="n">
+        <v>9999004.459026817</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>31</v>
+      </c>
+      <c r="C255" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D255" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E255" t="n">
+        <v>31</v>
+      </c>
+      <c r="F255" t="n">
+        <v>60152.3264</v>
+      </c>
+      <c r="G255" t="n">
+        <v>10059156.78542682</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D256" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E256" t="n">
+        <v>31</v>
+      </c>
+      <c r="F256" t="n">
+        <v>19624.5832</v>
+      </c>
+      <c r="G256" t="n">
+        <v>10059156.78542682</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>31</v>
+      </c>
+      <c r="C257" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D257" t="n">
+        <v>31</v>
+      </c>
+      <c r="E257" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F257" t="n">
+        <v>142286.5721245902</v>
+      </c>
+      <c r="G257" t="n">
+        <v>9916870.213302227</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C258" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D258" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E258" t="n">
+        <v>30</v>
+      </c>
+      <c r="F258" t="n">
+        <v>246447.9644</v>
+      </c>
+      <c r="G258" t="n">
+        <v>10163318.17770223</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C259" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D259" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E259" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F259" t="n">
+        <v>78019.2907</v>
+      </c>
+      <c r="G259" t="n">
+        <v>10085298.88700223</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C260" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D260" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E260" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F260" t="n">
+        <v>59267.122</v>
+      </c>
+      <c r="G260" t="n">
+        <v>10085298.88700223</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C261" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D261" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E261" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F261" t="n">
+        <v>6006.9502</v>
+      </c>
+      <c r="G261" t="n">
+        <v>10079291.93680223</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C262" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D262" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E262" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F262" t="n">
+        <v>33027.6738</v>
+      </c>
+      <c r="G262" t="n">
+        <v>10112319.61060223</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C263" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D263" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E263" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F263" t="n">
+        <v>8585.744500000001</v>
+      </c>
+      <c r="G263" t="n">
+        <v>10120905.35510223</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C264" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D264" t="n">
+        <v>31</v>
+      </c>
+      <c r="E264" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F264" t="n">
+        <v>64318.5228</v>
+      </c>
+      <c r="G264" t="n">
+        <v>10056586.83230223</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C265" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D265" t="n">
+        <v>32</v>
+      </c>
+      <c r="E265" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F265" t="n">
+        <v>273047.935744375</v>
+      </c>
+      <c r="G265" t="n">
+        <v>10329634.7680466</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C266" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D266" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E266" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F266" t="n">
+        <v>173559.7469812699</v>
+      </c>
+      <c r="G266" t="n">
+        <v>10156075.02106533</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C267" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D267" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E267" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F267" t="n">
+        <v>121291.1591894231</v>
+      </c>
+      <c r="G267" t="n">
+        <v>10277366.18025476</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C268" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E268" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F268" t="n">
+        <v>100104.8288018987</v>
+      </c>
+      <c r="G268" t="n">
+        <v>10177261.35145286</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C269" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D269" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E269" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>129527.3288619048</v>
+      </c>
+      <c r="G269" t="n">
+        <v>10306788.68031476</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C270" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D270" t="n">
+        <v>33</v>
+      </c>
+      <c r="E270" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F270" t="n">
+        <v>530444.185355625</v>
+      </c>
+      <c r="G270" t="n">
+        <v>10837232.86567039</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C271" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D271" t="n">
+        <v>33</v>
+      </c>
+      <c r="E271" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F271" t="n">
+        <v>970455.849</v>
+      </c>
+      <c r="G271" t="n">
+        <v>9866777.016670387</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>32</v>
+      </c>
+      <c r="C272" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D272" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E272" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="F272" t="n">
+        <v>305587.6111</v>
+      </c>
+      <c r="G272" t="n">
+        <v>9866777.016670387</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C273" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D273" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E273" t="n">
+        <v>32</v>
+      </c>
+      <c r="F273" t="n">
+        <v>222460.4026</v>
+      </c>
+      <c r="G273" t="n">
+        <v>9866777.016670387</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C274" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E274" t="n">
+        <v>32</v>
+      </c>
+      <c r="F274" t="n">
+        <v>269880.1395</v>
+      </c>
+      <c r="G274" t="n">
+        <v>9596896.877170388</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D275" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E275" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F275" t="n">
+        <v>292517.9367</v>
+      </c>
+      <c r="G275" t="n">
+        <v>9889414.813870387</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C276" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E276" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F276" t="n">
+        <v>128499.9134</v>
+      </c>
+      <c r="G276" t="n">
+        <v>9889414.813870387</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="C277" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D277" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E277" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F277" t="n">
+        <v>47478.8668</v>
+      </c>
+      <c r="G277" t="n">
+        <v>9936893.680670388</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C278" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D278" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E278" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F278" t="n">
+        <v>46742.8218</v>
+      </c>
+      <c r="G278" t="n">
+        <v>9983636.502470387</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C279" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="D279" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E279" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F279" t="n">
+        <v>54746.5527</v>
+      </c>
+      <c r="G279" t="n">
+        <v>9928889.949770387</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>32</v>
+      </c>
+      <c r="C280" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D280" t="n">
+        <v>32</v>
+      </c>
+      <c r="E280" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F280" t="n">
+        <v>74602.7464</v>
+      </c>
+      <c r="G280" t="n">
+        <v>9854287.203370387</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="C281" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="D281" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E281" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F281" t="n">
+        <v>65692.12729999999</v>
+      </c>
+      <c r="G281" t="n">
+        <v>9919979.330670387</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>32</v>
+      </c>
+      <c r="C282" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D282" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E282" t="n">
+        <v>32</v>
+      </c>
+      <c r="F282" t="n">
+        <v>224159.8495</v>
+      </c>
+      <c r="G282" t="n">
+        <v>10144139.18017039</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D283" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E283" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F283" t="n">
+        <v>64786.726</v>
+      </c>
+      <c r="G283" t="n">
+        <v>10208925.90617039</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C284" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D284" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E284" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F284" t="n">
+        <v>76874.9859</v>
+      </c>
+      <c r="G284" t="n">
+        <v>10208925.90617039</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C285" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D285" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E285" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>47338.49336748466</v>
+      </c>
+      <c r="G285" t="n">
+        <v>10256264.39953787</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C286" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D286" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E286" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F286" t="n">
+        <v>19774.03283251534</v>
+      </c>
+      <c r="G286" t="n">
+        <v>10276038.43237039</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C287" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D287" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E287" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F287" t="n">
+        <v>257780.219</v>
+      </c>
+      <c r="G287" t="n">
+        <v>10533818.65137039</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C288" t="n">
+        <v>34</v>
+      </c>
+      <c r="D288" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E288" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F288" t="n">
+        <v>755036.5002834505</v>
+      </c>
+      <c r="G288" t="n">
+        <v>11288855.15165384</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>34</v>
+      </c>
+      <c r="C289" t="n">
+        <v>33</v>
+      </c>
+      <c r="D289" t="n">
+        <v>34</v>
+      </c>
+      <c r="E289" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F289" t="n">
+        <v>590660.8783</v>
+      </c>
+      <c r="G289" t="n">
+        <v>10698194.27335384</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C290" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="D290" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="E290" t="n">
+        <v>33</v>
+      </c>
+      <c r="F290" t="n">
+        <v>475891.5014</v>
+      </c>
+      <c r="G290" t="n">
+        <v>11174085.77475384</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C291" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D291" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E291" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F291" t="n">
+        <v>357843.6753577259</v>
+      </c>
+      <c r="G291" t="n">
+        <v>11531929.45011156</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C292" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D292" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E292" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F292" t="n">
+        <v>118881.2038</v>
+      </c>
+      <c r="G292" t="n">
+        <v>11413048.24631156</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="C293" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="D293" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="E293" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F293" t="n">
+        <v>716318.2605</v>
+      </c>
+      <c r="G293" t="n">
+        <v>12129366.50681156</v>
+      </c>
+      <c r="H293" t="n">
+        <v>2</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L220" t="n">
-        <v>1.280714285714286</v>
-      </c>
-      <c r="M220" t="n">
+      <c r="L293" t="n">
+        <v>1.536125541125541</v>
+      </c>
+      <c r="M293" t="n">
         <v>1.013100436681223</v>
       </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C221" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D221" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E221" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F221" t="n">
-        <v>176921.3435108911</v>
-      </c>
-      <c r="G221" t="n">
-        <v>9426406.72115181</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C222" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D222" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E222" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F222" t="n">
-        <v>131573.9951</v>
-      </c>
-      <c r="G222" t="n">
-        <v>9557980.716251811</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C223" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D223" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E223" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F223" t="n">
-        <v>145335.4761</v>
-      </c>
-      <c r="G223" t="n">
-        <v>9703316.192351811</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C224" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D224" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E224" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F224" t="n">
-        <v>248161.906375082</v>
-      </c>
-      <c r="G224" t="n">
-        <v>9951478.098726893</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C225" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D225" t="n">
-        <v>31</v>
-      </c>
-      <c r="E225" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F225" t="n">
-        <v>319809.6412</v>
-      </c>
-      <c r="G225" t="n">
-        <v>10271287.73992689</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C226" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D226" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="E226" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F226" t="n">
-        <v>796734.3553000001</v>
-      </c>
-      <c r="G226" t="n">
-        <v>9474553.384626893</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C227" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D227" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E227" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F227" t="n">
-        <v>45093.2235</v>
-      </c>
-      <c r="G227" t="n">
-        <v>9519646.608126894</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C228" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D228" t="n">
-        <v>31</v>
-      </c>
-      <c r="E228" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F228" t="n">
-        <v>339747.214566129</v>
-      </c>
-      <c r="G228" t="n">
-        <v>9859393.822693022</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C229" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D229" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E229" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F229" t="n">
-        <v>341523.1116599317</v>
-      </c>
-      <c r="G229" t="n">
-        <v>10200916.93435295</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C230" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D230" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E230" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F230" t="n">
-        <v>154585.6619080386</v>
-      </c>
-      <c r="G230" t="n">
-        <v>10046331.27244492</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C231" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D231" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="E231" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F231" t="n">
-        <v>268765.3848919614</v>
-      </c>
-      <c r="G231" t="n">
-        <v>10315096.65733688</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C232" t="n">
-        <v>32</v>
-      </c>
-      <c r="D232" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E232" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="F232" t="n">
-        <v>1068629.35630031</v>
-      </c>
-      <c r="G232" t="n">
-        <v>11383726.01363719</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C233" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D233" t="n">
-        <v>32</v>
-      </c>
-      <c r="E233" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F233" t="n">
-        <v>756993.6997999999</v>
-      </c>
-      <c r="G233" t="n">
-        <v>10626732.31383719</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="C234" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D234" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="E234" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F234" t="n">
-        <v>32644.007</v>
-      </c>
-      <c r="G234" t="n">
-        <v>10626732.31383719</v>
-      </c>
-      <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="C235" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="D235" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E235" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F235" t="n">
-        <v>491252.4954549689</v>
-      </c>
-      <c r="G235" t="n">
-        <v>11117984.80929215</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="C236" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D236" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E236" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F236" t="n">
-        <v>236674.1988346652</v>
-      </c>
-      <c r="G236" t="n">
-        <v>11354659.00812682</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C237" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D237" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E237" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1051646.5391</v>
-      </c>
-      <c r="G237" t="n">
-        <v>10303012.46902682</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="C238" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="D238" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="E238" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F238" t="n">
-        <v>276759.06</v>
-      </c>
-      <c r="G238" t="n">
-        <v>10026253.40902682</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="C239" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D239" t="n">
-        <v>32</v>
-      </c>
-      <c r="E239" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F239" t="n">
-        <v>57953.0831</v>
-      </c>
-      <c r="G239" t="n">
-        <v>10084206.49212682</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C240" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="D240" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="E240" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F240" t="n">
-        <v>422639.1124</v>
-      </c>
-      <c r="G240" t="n">
-        <v>10506845.60452682</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C241" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="D241" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="E241" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F241" t="n">
-        <v>109935.6593</v>
-      </c>
-      <c r="G241" t="n">
-        <v>10396909.94522682</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="C242" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="D242" t="n">
-        <v>32</v>
-      </c>
-      <c r="E242" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F242" t="n">
-        <v>58410.3622</v>
-      </c>
-      <c r="G242" t="n">
-        <v>10455320.30742682</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="C243" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="D243" t="n">
-        <v>32</v>
-      </c>
-      <c r="E243" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F243" t="n">
-        <v>273417.0712</v>
-      </c>
-      <c r="G243" t="n">
-        <v>10181903.23622682</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="C244" t="n">
-        <v>31</v>
-      </c>
-      <c r="D244" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E244" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F244" t="n">
-        <v>146075.7979</v>
-      </c>
-      <c r="G244" t="n">
-        <v>10035827.43832682</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>31</v>
-      </c>
-      <c r="C245" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="D245" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="E245" t="n">
-        <v>31</v>
-      </c>
-      <c r="F245" t="n">
-        <v>498668.2692</v>
-      </c>
-      <c r="G245" t="n">
-        <v>10534495.70752682</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="C246" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="D246" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="E246" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="F246" t="n">
-        <v>119500.9741</v>
-      </c>
-      <c r="G246" t="n">
-        <v>10414994.73342682</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="C247" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D247" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="E247" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F247" t="n">
-        <v>40847.0284</v>
-      </c>
-      <c r="G247" t="n">
-        <v>10374147.70502682</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C248" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="D248" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="E248" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F248" t="n">
-        <v>238538.6957</v>
-      </c>
-      <c r="G248" t="n">
-        <v>10612686.40072682</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="C249" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D249" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="E249" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="F249" t="n">
-        <v>403148.2408</v>
-      </c>
-      <c r="G249" t="n">
-        <v>10209538.15992682</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="C250" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="D250" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="E250" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="F250" t="n">
-        <v>3307.7556</v>
-      </c>
-      <c r="G250" t="n">
-        <v>10212845.91552682</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="C251" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D251" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E251" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F251" t="n">
-        <v>76268.0736</v>
-      </c>
-      <c r="G251" t="n">
-        <v>10136577.84192682</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C252" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D252" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E252" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F252" t="n">
-        <v>18212.6032</v>
-      </c>
-      <c r="G252" t="n">
-        <v>10154790.44512682</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="C253" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D253" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="E253" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F253" t="n">
-        <v>166218.0585</v>
-      </c>
-      <c r="G253" t="n">
-        <v>9988572.386626817</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C254" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D254" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E254" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F254" t="n">
-        <v>10432.0724</v>
-      </c>
-      <c r="G254" t="n">
-        <v>9999004.459026817</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>31</v>
-      </c>
-      <c r="C255" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="D255" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E255" t="n">
-        <v>31</v>
-      </c>
-      <c r="F255" t="n">
-        <v>60152.3264</v>
-      </c>
-      <c r="G255" t="n">
-        <v>10059156.78542682</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C256" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="D256" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="E256" t="n">
-        <v>31</v>
-      </c>
-      <c r="F256" t="n">
-        <v>19624.5832</v>
-      </c>
-      <c r="G256" t="n">
-        <v>10059156.78542682</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>31</v>
-      </c>
-      <c r="C257" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D257" t="n">
-        <v>31</v>
-      </c>
-      <c r="E257" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F257" t="n">
-        <v>142286.5721245902</v>
-      </c>
-      <c r="G257" t="n">
-        <v>9916870.213302227</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C258" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D258" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E258" t="n">
-        <v>30</v>
-      </c>
-      <c r="F258" t="n">
-        <v>246447.9644</v>
-      </c>
-      <c r="G258" t="n">
-        <v>10163318.17770223</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C259" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D259" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E259" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F259" t="n">
-        <v>78019.2907</v>
-      </c>
-      <c r="G259" t="n">
-        <v>10085298.88700223</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C260" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D260" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E260" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F260" t="n">
-        <v>59267.122</v>
-      </c>
-      <c r="G260" t="n">
-        <v>10085298.88700223</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C261" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D261" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E261" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F261" t="n">
-        <v>6006.9502</v>
-      </c>
-      <c r="G261" t="n">
-        <v>10079291.93680223</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C262" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D262" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E262" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F262" t="n">
-        <v>33027.6738</v>
-      </c>
-      <c r="G262" t="n">
-        <v>10112319.61060223</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C263" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D263" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E263" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F263" t="n">
-        <v>8585.744500000001</v>
-      </c>
-      <c r="G263" t="n">
-        <v>10120905.35510223</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C264" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D264" t="n">
-        <v>31</v>
-      </c>
-      <c r="E264" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F264" t="n">
-        <v>64318.5228</v>
-      </c>
-      <c r="G264" t="n">
-        <v>10056586.83230223</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C265" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D265" t="n">
-        <v>32</v>
-      </c>
-      <c r="E265" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F265" t="n">
-        <v>273047.935744375</v>
-      </c>
-      <c r="G265" t="n">
-        <v>10329634.7680466</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="C266" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D266" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="E266" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F266" t="n">
-        <v>173559.7469812699</v>
-      </c>
-      <c r="G266" t="n">
-        <v>10156075.02106533</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C267" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="D267" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="E267" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F267" t="n">
-        <v>121291.1591894231</v>
-      </c>
-      <c r="G267" t="n">
-        <v>10277366.18025476</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C268" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D268" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="E268" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F268" t="n">
-        <v>100104.8288018987</v>
-      </c>
-      <c r="G268" t="n">
-        <v>10177261.35145286</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="C269" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D269" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="E269" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="F269" t="n">
-        <v>129527.3288619048</v>
-      </c>
-      <c r="G269" t="n">
-        <v>10306788.68031476</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="C270" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D270" t="n">
-        <v>33</v>
-      </c>
-      <c r="E270" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="F270" t="n">
-        <v>530444.185355625</v>
-      </c>
-      <c r="G270" t="n">
-        <v>10837232.86567039</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C271" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D271" t="n">
-        <v>33</v>
-      </c>
-      <c r="E271" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F271" t="n">
-        <v>970455.849</v>
-      </c>
-      <c r="G271" t="n">
-        <v>9866777.016670387</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>32</v>
-      </c>
-      <c r="C272" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D272" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E272" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="F272" t="n">
-        <v>305587.6111</v>
-      </c>
-      <c r="G272" t="n">
-        <v>9866777.016670387</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C273" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D273" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E273" t="n">
-        <v>32</v>
-      </c>
-      <c r="F273" t="n">
-        <v>222460.4026</v>
-      </c>
-      <c r="G273" t="n">
-        <v>9866777.016670387</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="C274" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="D274" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E274" t="n">
-        <v>32</v>
-      </c>
-      <c r="F274" t="n">
-        <v>269880.1395</v>
-      </c>
-      <c r="G274" t="n">
-        <v>9596896.877170388</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C275" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D275" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E275" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F275" t="n">
-        <v>292517.9367</v>
-      </c>
-      <c r="G275" t="n">
-        <v>9889414.813870387</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C276" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D276" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E276" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="F276" t="n">
-        <v>128499.9134</v>
-      </c>
-      <c r="G276" t="n">
-        <v>9889414.813870387</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="C277" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D277" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E277" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F277" t="n">
-        <v>47478.8668</v>
-      </c>
-      <c r="G277" t="n">
-        <v>9936893.680670388</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C278" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D278" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E278" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F278" t="n">
-        <v>46742.8218</v>
-      </c>
-      <c r="G278" t="n">
-        <v>9983636.502470387</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C279" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="D279" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E279" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="F279" t="n">
-        <v>54746.5527</v>
-      </c>
-      <c r="G279" t="n">
-        <v>9928889.949770387</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>32</v>
-      </c>
-      <c r="C280" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D280" t="n">
-        <v>32</v>
-      </c>
-      <c r="E280" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F280" t="n">
-        <v>74602.7464</v>
-      </c>
-      <c r="G280" t="n">
-        <v>9854287.203370387</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="C281" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="D281" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="E281" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F281" t="n">
-        <v>65692.12729999999</v>
-      </c>
-      <c r="G281" t="n">
-        <v>9919979.330670387</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>32</v>
-      </c>
-      <c r="C282" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D282" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E282" t="n">
-        <v>32</v>
-      </c>
-      <c r="F282" t="n">
-        <v>224159.8495</v>
-      </c>
-      <c r="G282" t="n">
-        <v>10144139.18017039</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C283" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D283" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E283" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="F283" t="n">
-        <v>64786.726</v>
-      </c>
-      <c r="G283" t="n">
-        <v>10208925.90617039</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C284" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D284" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E284" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F284" t="n">
-        <v>76874.9859</v>
-      </c>
-      <c r="G284" t="n">
-        <v>10208925.90617039</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C285" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D285" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E285" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F285" t="n">
-        <v>47338.49336748466</v>
-      </c>
-      <c r="G285" t="n">
-        <v>10256264.39953787</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C286" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D286" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E286" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F286" t="n">
-        <v>19774.03283251534</v>
-      </c>
-      <c r="G286" t="n">
-        <v>10276038.43237039</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C287" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D287" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E287" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F287" t="n">
-        <v>257780.219</v>
-      </c>
-      <c r="G287" t="n">
-        <v>10533818.65137039</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C288" t="n">
-        <v>34</v>
-      </c>
-      <c r="D288" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E288" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F288" t="n">
-        <v>755036.5002834505</v>
-      </c>
-      <c r="G288" t="n">
-        <v>11288855.15165384</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>34</v>
-      </c>
-      <c r="C289" t="n">
-        <v>33</v>
-      </c>
-      <c r="D289" t="n">
-        <v>34</v>
-      </c>
-      <c r="E289" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F289" t="n">
-        <v>590660.8783</v>
-      </c>
-      <c r="G289" t="n">
-        <v>10698194.27335384</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="C290" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="D290" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="E290" t="n">
-        <v>33</v>
-      </c>
-      <c r="F290" t="n">
-        <v>475891.5014</v>
-      </c>
-      <c r="G290" t="n">
-        <v>11174085.77475384</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="C291" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D291" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E291" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="F291" t="n">
-        <v>357843.6753577259</v>
-      </c>
-      <c r="G291" t="n">
-        <v>11531929.45011156</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C292" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="D292" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E292" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="F292" t="n">
-        <v>118881.2038</v>
-      </c>
-      <c r="G292" t="n">
-        <v>11413048.24631156</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="C293" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="D293" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="E293" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="F293" t="n">
-        <v>716318.2605</v>
-      </c>
-      <c r="G293" t="n">
-        <v>12129366.50681156</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11569,7 +12011,7 @@
         <v>11485019.50704488</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11602,7 +12044,7 @@
         <v>12225525.94641106</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11635,7 +12077,7 @@
         <v>11307016.01626699</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11668,7 +12110,7 @@
         <v>10751540.32016699</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11701,7 +12143,7 @@
         <v>11224715.57766699</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11734,7 +12176,7 @@
         <v>11766049.80896699</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11767,7 +12209,7 @@
         <v>11766049.80896699</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11800,7 +12242,7 @@
         <v>11766049.80896699</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11833,7 +12275,7 @@
         <v>11491716.89496699</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11866,7 +12308,7 @@
         <v>10704198.79246699</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11899,7 +12341,7 @@
         <v>10376840.48186699</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11932,7 +12374,7 @@
         <v>10905732.79964868</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11965,7 +12407,7 @@
         <v>10414644.13664868</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11998,7 +12440,7 @@
         <v>10601706.27954868</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12031,7 +12473,7 @@
         <v>10866726.29287951</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12064,7 +12506,7 @@
         <v>10837360.76847951</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12097,7 +12539,7 @@
         <v>10915887.04127951</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12130,7 +12572,7 @@
         <v>10915887.04127951</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12163,7 +12605,7 @@
         <v>10760769.56937951</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12196,7 +12638,7 @@
         <v>10760769.56937951</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12229,7 +12671,7 @@
         <v>10431984.87567951</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12262,7 +12704,7 @@
         <v>10550041.40947951</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12295,7 +12737,7 @@
         <v>10347069.00977951</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12328,7 +12770,7 @@
         <v>10211216.83127951</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12361,7 +12803,7 @@
         <v>9789629.885690453</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12394,7 +12836,7 @@
         <v>9993705.600590453</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12427,7 +12869,7 @@
         <v>9813342.368990453</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12460,7 +12902,7 @@
         <v>9813792.038190452</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12493,7 +12935,7 @@
         <v>9645051.111490453</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12526,7 +12968,7 @@
         <v>9456526.920790453</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12559,7 +13001,7 @@
         <v>9250055.621390453</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
